--- a/Plan/Table/TestData/03.RelicData.xlsx
+++ b/Plan/Table/TestData/03.RelicData.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDisdog\Plan\Table\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE109BC8-457C-453F-960D-45A96BE6626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F60E536-C83E-413D-A099-4ABBCF743FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{74AA91DA-0904-4709-9E42-EDBC68E4748F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8D336ED9-2853-4D1D-BB3A-09D4A6C36BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="03.RelicData" sheetId="1" r:id="rId1"/>
@@ -520,8 +520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1CABD7-E7AA-4005-ACB1-C7C15EC10154}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8ED6A6-3B74-4C1A-B314-743E796F3342}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -772,7 +771,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -804,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1070,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
         <v>0</v>

--- a/Plan/Table/TestData/03.RelicData.xlsx
+++ b/Plan/Table/TestData/03.RelicData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDisdog\Plan\Table\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F60E536-C83E-413D-A099-4ABBCF743FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39292897-E56A-4AFF-9DD7-01117F172EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8D336ED9-2853-4D1D-BB3A-09D4A6C36BD9}"/>
+    <workbookView xWindow="14670" yWindow="3090" windowWidth="14505" windowHeight="13485" xr2:uid="{247626B8-8AFF-4BC7-BFA2-29F220F2D72E}"/>
   </bookViews>
   <sheets>
     <sheet name="03.RelicData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Key</t>
   </si>
@@ -44,72 +44,207 @@
     <t>Locale_Key</t>
   </si>
   <si>
+    <t>Locale_Des</t>
+  </si>
+  <si>
     <t>relic1</t>
   </si>
   <si>
+    <t>relic1_Name</t>
+  </si>
+  <si>
+    <t>relic1_Des</t>
+  </si>
+  <si>
     <t>relic2</t>
   </si>
   <si>
+    <t>relic2_Name</t>
+  </si>
+  <si>
+    <t>relic2_Des</t>
+  </si>
+  <si>
     <t>relic3</t>
   </si>
   <si>
+    <t>relic3_Name</t>
+  </si>
+  <si>
+    <t>relic3_Des</t>
+  </si>
+  <si>
     <t>relic4</t>
   </si>
   <si>
+    <t>relic4_Name</t>
+  </si>
+  <si>
+    <t>relic4_Des</t>
+  </si>
+  <si>
     <t>relic5</t>
   </si>
   <si>
+    <t>relic5_Name</t>
+  </si>
+  <si>
+    <t>relic5_Des</t>
+  </si>
+  <si>
     <t>relic6</t>
   </si>
   <si>
+    <t>relic6_Name</t>
+  </si>
+  <si>
+    <t>relic6_Des</t>
+  </si>
+  <si>
     <t>relic7</t>
   </si>
   <si>
+    <t>relic7_Name</t>
+  </si>
+  <si>
+    <t>relic7_Des</t>
+  </si>
+  <si>
     <t>relic8</t>
   </si>
   <si>
+    <t>relic8_Name</t>
+  </si>
+  <si>
+    <t>relic8_Des</t>
+  </si>
+  <si>
     <t>relic9</t>
   </si>
   <si>
+    <t>relic9_Name</t>
+  </si>
+  <si>
+    <t>relic9_Des</t>
+  </si>
+  <si>
     <t>relic10</t>
   </si>
   <si>
+    <t>relic10_Name</t>
+  </si>
+  <si>
+    <t>relic10_Des</t>
+  </si>
+  <si>
     <t>relic11</t>
   </si>
   <si>
+    <t>relic11_Name</t>
+  </si>
+  <si>
+    <t>relic11_Des</t>
+  </si>
+  <si>
     <t>relic12</t>
   </si>
   <si>
+    <t>relic12_Name</t>
+  </si>
+  <si>
+    <t>relic12_Des</t>
+  </si>
+  <si>
     <t>relic13</t>
   </si>
   <si>
+    <t>relic13_Name</t>
+  </si>
+  <si>
+    <t>relic13_Des</t>
+  </si>
+  <si>
     <t>relic14</t>
   </si>
   <si>
+    <t>relic14_Name</t>
+  </si>
+  <si>
+    <t>relic14_Des</t>
+  </si>
+  <si>
     <t>relic15</t>
   </si>
   <si>
+    <t>relic15_Name</t>
+  </si>
+  <si>
+    <t>relic15_Des</t>
+  </si>
+  <si>
     <t>relic16</t>
   </si>
   <si>
+    <t>relic16_Name</t>
+  </si>
+  <si>
+    <t>relic16_Des</t>
+  </si>
+  <si>
     <t>relic17</t>
   </si>
   <si>
+    <t>relic17_Name</t>
+  </si>
+  <si>
+    <t>relic17_Des</t>
+  </si>
+  <si>
     <t>relic18</t>
   </si>
   <si>
+    <t>relic18_Name</t>
+  </si>
+  <si>
+    <t>relic18_Des</t>
+  </si>
+  <si>
     <t>relic19</t>
   </si>
   <si>
+    <t>relic19_Name</t>
+  </si>
+  <si>
+    <t>relic19_Des</t>
+  </si>
+  <si>
     <t>relic20</t>
   </si>
   <si>
+    <t>relic20_Name</t>
+  </si>
+  <si>
+    <t>relic20_Des</t>
+  </si>
+  <si>
     <t>relic21</t>
   </si>
   <si>
+    <t>relic21_Name</t>
+  </si>
+  <si>
+    <t>relic21_Des</t>
+  </si>
+  <si>
     <t>relic22</t>
   </si>
   <si>
+    <t>relic22_Name</t>
+  </si>
+  <si>
+    <t>relic22_Des</t>
+  </si>
+  <si>
     <t>Value_01</t>
   </si>
   <si>
@@ -135,9 +270,6 @@
   </si>
   <si>
     <t>Value_09</t>
-  </si>
-  <si>
-    <t>Value_10</t>
   </si>
 </sst>
 </file>
@@ -520,7 +652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8ED6A6-3B74-4C1A-B314-743E796F3342}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA65A15-458A-4422-86C1-0D16B23CAA66}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -537,48 +669,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -607,16 +739,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>1.25</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -645,16 +777,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
         <v>3000</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -683,16 +815,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
         <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -721,13 +853,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -759,22 +891,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -797,16 +929,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
         <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -835,13 +967,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -873,16 +1005,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
         <v>3</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -911,16 +1043,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
         <v>1.5</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -949,16 +1081,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
         <v>3000</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -987,13 +1119,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1025,16 +1157,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14">
         <v>2.25</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1063,16 +1195,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
         <v>0.1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1101,16 +1233,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
         <v>3000</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1139,16 +1271,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17">
         <v>3000</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1177,16 +1309,16 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
         <v>5</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1215,16 +1347,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
         <v>3</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1253,16 +1385,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20">
         <v>2.5</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1291,16 +1423,16 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21">
         <v>7</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1329,54 +1461,54 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22">
         <v>2500</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1500</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1300</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1100</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>700</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>500</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>300</v>
-      </c>
-      <c r="L22">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23">
         <v>2000</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>

--- a/Plan/Table/TestData/03.RelicData.xlsx
+++ b/Plan/Table/TestData/03.RelicData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDisdog\Plan\Table\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39292897-E56A-4AFF-9DD7-01117F172EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3A62841-B729-4B32-B6FE-D3671A754D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14670" yWindow="3090" windowWidth="14505" windowHeight="13485" xr2:uid="{247626B8-8AFF-4BC7-BFA2-29F220F2D72E}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="14505" windowHeight="13485" xr2:uid="{27308196-C9EB-464D-BB4F-6613FA152728}"/>
   </bookViews>
   <sheets>
     <sheet name="03.RelicData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Key</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Locale_Des</t>
   </si>
   <si>
-    <t>relic1</t>
+    <t>relic101</t>
   </si>
   <si>
     <t>relic1_Name</t>
@@ -56,7 +56,7 @@
     <t>relic1_Des</t>
   </si>
   <si>
-    <t>relic2</t>
+    <t>relic102</t>
   </si>
   <si>
     <t>relic2_Name</t>
@@ -65,7 +65,7 @@
     <t>relic2_Des</t>
   </si>
   <si>
-    <t>relic3</t>
+    <t>relic103</t>
   </si>
   <si>
     <t>relic3_Name</t>
@@ -74,7 +74,7 @@
     <t>relic3_Des</t>
   </si>
   <si>
-    <t>relic4</t>
+    <t>relic104</t>
   </si>
   <si>
     <t>relic4_Name</t>
@@ -83,7 +83,7 @@
     <t>relic4_Des</t>
   </si>
   <si>
-    <t>relic5</t>
+    <t>relic105</t>
   </si>
   <si>
     <t>relic5_Name</t>
@@ -92,7 +92,7 @@
     <t>relic5_Des</t>
   </si>
   <si>
-    <t>relic6</t>
+    <t>relic106</t>
   </si>
   <si>
     <t>relic6_Name</t>
@@ -101,7 +101,7 @@
     <t>relic6_Des</t>
   </si>
   <si>
-    <t>relic7</t>
+    <t>relic107</t>
   </si>
   <si>
     <t>relic7_Name</t>
@@ -110,7 +110,7 @@
     <t>relic7_Des</t>
   </si>
   <si>
-    <t>relic8</t>
+    <t>relic108</t>
   </si>
   <si>
     <t>relic8_Name</t>
@@ -119,7 +119,7 @@
     <t>relic8_Des</t>
   </si>
   <si>
-    <t>relic9</t>
+    <t>relic109</t>
   </si>
   <si>
     <t>relic9_Name</t>
@@ -128,7 +128,7 @@
     <t>relic9_Des</t>
   </si>
   <si>
-    <t>relic10</t>
+    <t>relic110</t>
   </si>
   <si>
     <t>relic10_Name</t>
@@ -137,7 +137,7 @@
     <t>relic10_Des</t>
   </si>
   <si>
-    <t>relic11</t>
+    <t>relic111</t>
   </si>
   <si>
     <t>relic11_Name</t>
@@ -146,7 +146,7 @@
     <t>relic11_Des</t>
   </si>
   <si>
-    <t>relic12</t>
+    <t>relic112</t>
   </si>
   <si>
     <t>relic12_Name</t>
@@ -155,7 +155,7 @@
     <t>relic12_Des</t>
   </si>
   <si>
-    <t>relic13</t>
+    <t>relic113</t>
   </si>
   <si>
     <t>relic13_Name</t>
@@ -164,7 +164,7 @@
     <t>relic13_Des</t>
   </si>
   <si>
-    <t>relic14</t>
+    <t>relic114</t>
   </si>
   <si>
     <t>relic14_Name</t>
@@ -173,7 +173,7 @@
     <t>relic14_Des</t>
   </si>
   <si>
-    <t>relic15</t>
+    <t>relic115</t>
   </si>
   <si>
     <t>relic15_Name</t>
@@ -182,7 +182,7 @@
     <t>relic15_Des</t>
   </si>
   <si>
-    <t>relic16</t>
+    <t>relic116</t>
   </si>
   <si>
     <t>relic16_Name</t>
@@ -191,7 +191,7 @@
     <t>relic16_Des</t>
   </si>
   <si>
-    <t>relic17</t>
+    <t>relic117</t>
   </si>
   <si>
     <t>relic17_Name</t>
@@ -200,7 +200,7 @@
     <t>relic17_Des</t>
   </si>
   <si>
-    <t>relic18</t>
+    <t>relic118</t>
   </si>
   <si>
     <t>relic18_Name</t>
@@ -209,7 +209,7 @@
     <t>relic18_Des</t>
   </si>
   <si>
-    <t>relic19</t>
+    <t>relic119</t>
   </si>
   <si>
     <t>relic19_Name</t>
@@ -218,7 +218,7 @@
     <t>relic19_Des</t>
   </si>
   <si>
-    <t>relic20</t>
+    <t>relic120</t>
   </si>
   <si>
     <t>relic20_Name</t>
@@ -227,7 +227,7 @@
     <t>relic20_Des</t>
   </si>
   <si>
-    <t>relic21</t>
+    <t>relic121</t>
   </si>
   <si>
     <t>relic21_Name</t>
@@ -236,7 +236,7 @@
     <t>relic21_Des</t>
   </si>
   <si>
-    <t>relic22</t>
+    <t>relic122</t>
   </si>
   <si>
     <t>relic22_Name</t>
@@ -245,6 +245,126 @@
     <t>relic22_Des</t>
   </si>
   <si>
+    <t>relic201</t>
+  </si>
+  <si>
+    <t>relic23_Name</t>
+  </si>
+  <si>
+    <t>relic23_Des</t>
+  </si>
+  <si>
+    <t>relic202</t>
+  </si>
+  <si>
+    <t>relic24_Name</t>
+  </si>
+  <si>
+    <t>relic24_Des</t>
+  </si>
+  <si>
+    <t>relic203</t>
+  </si>
+  <si>
+    <t>relic25_Name</t>
+  </si>
+  <si>
+    <t>relic25_Des</t>
+  </si>
+  <si>
+    <t>relic204</t>
+  </si>
+  <si>
+    <t>relic26_Name</t>
+  </si>
+  <si>
+    <t>relic26_Des</t>
+  </si>
+  <si>
+    <t>relic205</t>
+  </si>
+  <si>
+    <t>relic27_Name</t>
+  </si>
+  <si>
+    <t>relic27_Des</t>
+  </si>
+  <si>
+    <t>relic206</t>
+  </si>
+  <si>
+    <t>relic28_Name</t>
+  </si>
+  <si>
+    <t>relic28_Des</t>
+  </si>
+  <si>
+    <t>relic207</t>
+  </si>
+  <si>
+    <t>relic29_Name</t>
+  </si>
+  <si>
+    <t>relic29_Des</t>
+  </si>
+  <si>
+    <t>relic208</t>
+  </si>
+  <si>
+    <t>relic30_Name</t>
+  </si>
+  <si>
+    <t>relic30_Des</t>
+  </si>
+  <si>
+    <t>relic209</t>
+  </si>
+  <si>
+    <t>relic31_Name</t>
+  </si>
+  <si>
+    <t>relic31_Des</t>
+  </si>
+  <si>
+    <t>relic210</t>
+  </si>
+  <si>
+    <t>relic32_Name</t>
+  </si>
+  <si>
+    <t>relic32_Des</t>
+  </si>
+  <si>
+    <t>relic211</t>
+  </si>
+  <si>
+    <t>relic33_Name</t>
+  </si>
+  <si>
+    <t>relic33_Des</t>
+  </si>
+  <si>
+    <t>relic212</t>
+  </si>
+  <si>
+    <t>relic34_Name</t>
+  </si>
+  <si>
+    <t>relic34_Des</t>
+  </si>
+  <si>
+    <t>relic213</t>
+  </si>
+  <si>
+    <t>relic35_Name</t>
+  </si>
+  <si>
+    <t>relic35_Des</t>
+  </si>
+  <si>
+    <t>Relic_Rarity</t>
+  </si>
+  <si>
     <t>Value_01</t>
   </si>
   <si>
@@ -270,6 +390,9 @@
   </si>
   <si>
     <t>Value_09</t>
+  </si>
+  <si>
+    <t>Value_10</t>
   </si>
 </sst>
 </file>
@@ -652,16 +775,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA65A15-458A-4422-86C1-0D16B23CAA66}">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA790082-042B-4A69-B3D7-A9D143F742EC}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
+      <selection sqref="A1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,34 +796,40 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="L1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="M1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -710,11 +840,11 @@
         <v>5</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -736,8 +866,14 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -748,11 +884,11 @@
         <v>8</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>1.25</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
         <v>0</v>
       </c>
@@ -774,8 +910,14 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -786,11 +928,11 @@
         <v>11</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>3000</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -812,8 +954,14 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -827,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -850,8 +998,14 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -862,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -888,8 +1042,14 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -900,17 +1060,17 @@
         <v>20</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>50</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -926,8 +1086,14 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -941,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -964,8 +1130,14 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1148,7 @@
         <v>26</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1002,8 +1174,14 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1014,11 +1192,11 @@
         <v>29</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
         <v>0</v>
       </c>
@@ -1040,8 +1218,14 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1052,11 +1236,11 @@
         <v>32</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1.5</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
         <v>0</v>
       </c>
@@ -1078,8 +1262,14 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1090,11 +1280,11 @@
         <v>35</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>3000</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
@@ -1116,8 +1306,14 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1128,7 +1324,7 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1154,8 +1350,14 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1166,11 +1368,11 @@
         <v>41</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>2.25</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
         <v>0</v>
       </c>
@@ -1192,8 +1394,14 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1204,11 +1412,11 @@
         <v>44</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>0.1</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
         <v>0</v>
       </c>
@@ -1230,8 +1438,14 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1242,11 +1456,11 @@
         <v>47</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>3000</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
         <v>0</v>
       </c>
@@ -1268,8 +1482,14 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1280,11 +1500,11 @@
         <v>50</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>3000</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
         <v>0</v>
       </c>
@@ -1306,8 +1526,14 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1318,11 +1544,11 @@
         <v>53</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>5</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
         <v>0</v>
       </c>
@@ -1344,8 +1570,14 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1356,11 +1588,11 @@
         <v>56</v>
       </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
         <v>0</v>
       </c>
@@ -1382,8 +1614,14 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1394,11 +1632,11 @@
         <v>59</v>
       </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>2.5</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
         <v>0</v>
       </c>
@@ -1420,8 +1658,14 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1432,11 +1676,11 @@
         <v>62</v>
       </c>
       <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>7</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
         <v>0</v>
       </c>
@@ -1458,8 +1702,14 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1470,34 +1720,40 @@
         <v>65</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>2500</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1500</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1300</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1100</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>700</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>500</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1508,11 +1764,11 @@
         <v>68</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>2000</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
@@ -1532,6 +1788,584 @@
         <v>0</v>
       </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>500</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1.2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>1.2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>0</v>
       </c>
     </row>

--- a/Plan/Table/TestData/03.RelicData.xlsx
+++ b/Plan/Table/TestData/03.RelicData.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDisdog\Plan\Table\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3A62841-B729-4B32-B6FE-D3671A754D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA0A34FF-A762-4307-BF7D-05008029BADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14505" windowHeight="13485" xr2:uid="{27308196-C9EB-464D-BB4F-6613FA152728}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3C26B904-AE4D-4904-B726-880CAC0B2204}"/>
   </bookViews>
   <sheets>
     <sheet name="03.RelicData" sheetId="1" r:id="rId1"/>
@@ -50,316 +50,316 @@
     <t>relic101</t>
   </si>
   <si>
-    <t>relic1_Name</t>
-  </si>
-  <si>
-    <t>relic1_Des</t>
+    <t>relic101_Name</t>
+  </si>
+  <si>
+    <t>relic101_Des</t>
   </si>
   <si>
     <t>relic102</t>
   </si>
   <si>
-    <t>relic2_Name</t>
-  </si>
-  <si>
-    <t>relic2_Des</t>
+    <t>relic102_Name</t>
+  </si>
+  <si>
+    <t>relic102_Des</t>
   </si>
   <si>
     <t>relic103</t>
   </si>
   <si>
-    <t>relic3_Name</t>
-  </si>
-  <si>
-    <t>relic3_Des</t>
+    <t>relic103_Name</t>
+  </si>
+  <si>
+    <t>relic103_Des</t>
   </si>
   <si>
     <t>relic104</t>
   </si>
   <si>
-    <t>relic4_Name</t>
-  </si>
-  <si>
-    <t>relic4_Des</t>
+    <t>relic104_Name</t>
+  </si>
+  <si>
+    <t>relic104_Des</t>
   </si>
   <si>
     <t>relic105</t>
   </si>
   <si>
-    <t>relic5_Name</t>
-  </si>
-  <si>
-    <t>relic5_Des</t>
+    <t>relic105_Name</t>
+  </si>
+  <si>
+    <t>relic105_Des</t>
   </si>
   <si>
     <t>relic106</t>
   </si>
   <si>
-    <t>relic6_Name</t>
-  </si>
-  <si>
-    <t>relic6_Des</t>
+    <t>relic106_Name</t>
+  </si>
+  <si>
+    <t>relic106_Des</t>
   </si>
   <si>
     <t>relic107</t>
   </si>
   <si>
-    <t>relic7_Name</t>
-  </si>
-  <si>
-    <t>relic7_Des</t>
+    <t>relic107_Name</t>
+  </si>
+  <si>
+    <t>relic107_Des</t>
   </si>
   <si>
     <t>relic108</t>
   </si>
   <si>
-    <t>relic8_Name</t>
-  </si>
-  <si>
-    <t>relic8_Des</t>
+    <t>relic108_Name</t>
+  </si>
+  <si>
+    <t>relic108_Des</t>
   </si>
   <si>
     <t>relic109</t>
   </si>
   <si>
-    <t>relic9_Name</t>
-  </si>
-  <si>
-    <t>relic9_Des</t>
+    <t>relic109_Name</t>
+  </si>
+  <si>
+    <t>relic109_Des</t>
   </si>
   <si>
     <t>relic110</t>
   </si>
   <si>
-    <t>relic10_Name</t>
-  </si>
-  <si>
-    <t>relic10_Des</t>
+    <t>relic110_Name</t>
+  </si>
+  <si>
+    <t>relic110_Des</t>
   </si>
   <si>
     <t>relic111</t>
   </si>
   <si>
-    <t>relic11_Name</t>
-  </si>
-  <si>
-    <t>relic11_Des</t>
+    <t>relic111_Name</t>
+  </si>
+  <si>
+    <t>relic111_Des</t>
   </si>
   <si>
     <t>relic112</t>
   </si>
   <si>
-    <t>relic12_Name</t>
-  </si>
-  <si>
-    <t>relic12_Des</t>
+    <t>relic112_Name</t>
+  </si>
+  <si>
+    <t>relic112_Des</t>
   </si>
   <si>
     <t>relic113</t>
   </si>
   <si>
-    <t>relic13_Name</t>
-  </si>
-  <si>
-    <t>relic13_Des</t>
+    <t>relic113_Name</t>
+  </si>
+  <si>
+    <t>relic113_Des</t>
   </si>
   <si>
     <t>relic114</t>
   </si>
   <si>
-    <t>relic14_Name</t>
-  </si>
-  <si>
-    <t>relic14_Des</t>
+    <t>relic114_Name</t>
+  </si>
+  <si>
+    <t>relic114_Des</t>
   </si>
   <si>
     <t>relic115</t>
   </si>
   <si>
-    <t>relic15_Name</t>
-  </si>
-  <si>
-    <t>relic15_Des</t>
+    <t>relic115_Name</t>
+  </si>
+  <si>
+    <t>relic115_Des</t>
   </si>
   <si>
     <t>relic116</t>
   </si>
   <si>
-    <t>relic16_Name</t>
-  </si>
-  <si>
-    <t>relic16_Des</t>
+    <t>relic116_Name</t>
+  </si>
+  <si>
+    <t>relic116_Des</t>
   </si>
   <si>
     <t>relic117</t>
   </si>
   <si>
-    <t>relic17_Name</t>
-  </si>
-  <si>
-    <t>relic17_Des</t>
+    <t>relic117_Name</t>
+  </si>
+  <si>
+    <t>relic117_Des</t>
   </si>
   <si>
     <t>relic118</t>
   </si>
   <si>
-    <t>relic18_Name</t>
-  </si>
-  <si>
-    <t>relic18_Des</t>
+    <t>relic118_Name</t>
+  </si>
+  <si>
+    <t>relic118_Des</t>
   </si>
   <si>
     <t>relic119</t>
   </si>
   <si>
-    <t>relic19_Name</t>
-  </si>
-  <si>
-    <t>relic19_Des</t>
+    <t>relic119_Name</t>
+  </si>
+  <si>
+    <t>relic119_Des</t>
   </si>
   <si>
     <t>relic120</t>
   </si>
   <si>
-    <t>relic20_Name</t>
-  </si>
-  <si>
-    <t>relic20_Des</t>
+    <t>relic120_Name</t>
+  </si>
+  <si>
+    <t>relic120_Des</t>
   </si>
   <si>
     <t>relic121</t>
   </si>
   <si>
-    <t>relic21_Name</t>
-  </si>
-  <si>
-    <t>relic21_Des</t>
+    <t>relic121_Name</t>
+  </si>
+  <si>
+    <t>relic121_Des</t>
   </si>
   <si>
     <t>relic122</t>
   </si>
   <si>
-    <t>relic22_Name</t>
-  </si>
-  <si>
-    <t>relic22_Des</t>
+    <t>relic122_Name</t>
+  </si>
+  <si>
+    <t>relic122_Des</t>
   </si>
   <si>
     <t>relic201</t>
   </si>
   <si>
-    <t>relic23_Name</t>
-  </si>
-  <si>
-    <t>relic23_Des</t>
+    <t>relic201_Name</t>
+  </si>
+  <si>
+    <t>relic201_Des</t>
   </si>
   <si>
     <t>relic202</t>
   </si>
   <si>
-    <t>relic24_Name</t>
-  </si>
-  <si>
-    <t>relic24_Des</t>
+    <t>relic202_Name</t>
+  </si>
+  <si>
+    <t>relic202_Des</t>
   </si>
   <si>
     <t>relic203</t>
   </si>
   <si>
-    <t>relic25_Name</t>
-  </si>
-  <si>
-    <t>relic25_Des</t>
+    <t>relic203_Name</t>
+  </si>
+  <si>
+    <t>relic203_Des</t>
   </si>
   <si>
     <t>relic204</t>
   </si>
   <si>
-    <t>relic26_Name</t>
-  </si>
-  <si>
-    <t>relic26_Des</t>
+    <t>relic204_Name</t>
+  </si>
+  <si>
+    <t>relic204_Des</t>
   </si>
   <si>
     <t>relic205</t>
   </si>
   <si>
-    <t>relic27_Name</t>
-  </si>
-  <si>
-    <t>relic27_Des</t>
+    <t>relic205_Name</t>
+  </si>
+  <si>
+    <t>relic205_Des</t>
   </si>
   <si>
     <t>relic206</t>
   </si>
   <si>
-    <t>relic28_Name</t>
-  </si>
-  <si>
-    <t>relic28_Des</t>
+    <t>relic206_Name</t>
+  </si>
+  <si>
+    <t>relic206_Des</t>
   </si>
   <si>
     <t>relic207</t>
   </si>
   <si>
-    <t>relic29_Name</t>
-  </si>
-  <si>
-    <t>relic29_Des</t>
+    <t>relic207_Name</t>
+  </si>
+  <si>
+    <t>relic207_Des</t>
   </si>
   <si>
     <t>relic208</t>
   </si>
   <si>
-    <t>relic30_Name</t>
-  </si>
-  <si>
-    <t>relic30_Des</t>
+    <t>relic208_Name</t>
+  </si>
+  <si>
+    <t>relic208_Des</t>
   </si>
   <si>
     <t>relic209</t>
   </si>
   <si>
-    <t>relic31_Name</t>
-  </si>
-  <si>
-    <t>relic31_Des</t>
+    <t>relic209_Name</t>
+  </si>
+  <si>
+    <t>relic209_Des</t>
   </si>
   <si>
     <t>relic210</t>
   </si>
   <si>
-    <t>relic32_Name</t>
-  </si>
-  <si>
-    <t>relic32_Des</t>
+    <t>relic210_Name</t>
+  </si>
+  <si>
+    <t>relic210_Des</t>
   </si>
   <si>
     <t>relic211</t>
   </si>
   <si>
-    <t>relic33_Name</t>
-  </si>
-  <si>
-    <t>relic33_Des</t>
+    <t>relic211_Name</t>
+  </si>
+  <si>
+    <t>relic211_Des</t>
   </si>
   <si>
     <t>relic212</t>
   </si>
   <si>
-    <t>relic34_Name</t>
-  </si>
-  <si>
-    <t>relic34_Des</t>
+    <t>relic212_Name</t>
+  </si>
+  <si>
+    <t>relic212_Des</t>
   </si>
   <si>
     <t>relic213</t>
   </si>
   <si>
-    <t>relic35_Name</t>
-  </si>
-  <si>
-    <t>relic35_Des</t>
+    <t>relic213_Name</t>
+  </si>
+  <si>
+    <t>relic213_Des</t>
   </si>
   <si>
     <t>Relic_Rarity</t>
@@ -775,8 +775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA790082-042B-4A69-B3D7-A9D143F742EC}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EED133A-2562-4700-AE93-C3D053B4F1E6}">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Plan/Table/TestData/03.RelicData.xlsx
+++ b/Plan/Table/TestData/03.RelicData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDisdog\Plan\Table\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA0A34FF-A762-4307-BF7D-05008029BADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0BB2E3-21C1-4D07-8997-96C8696B52F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3C26B904-AE4D-4904-B726-880CAC0B2204}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14505" windowHeight="13485" xr2:uid="{E4611A6D-82CF-424E-901F-D4AB58C02959}"/>
   </bookViews>
   <sheets>
     <sheet name="03.RelicData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>Key</t>
   </si>
@@ -360,6 +360,393 @@
   </si>
   <si>
     <t>relic213_Des</t>
+  </si>
+  <si>
+    <t>relic214</t>
+  </si>
+  <si>
+    <t>relic214_Name</t>
+  </si>
+  <si>
+    <t>relic214_Des</t>
+  </si>
+  <si>
+    <t>relic215</t>
+  </si>
+  <si>
+    <t>relic215_Name</t>
+  </si>
+  <si>
+    <t>relic215_Des</t>
+  </si>
+  <si>
+    <t>relic216</t>
+  </si>
+  <si>
+    <t>relic216_Name</t>
+  </si>
+  <si>
+    <t>relic216_Des</t>
+  </si>
+  <si>
+    <t>relic217</t>
+  </si>
+  <si>
+    <t>relic217_Name</t>
+  </si>
+  <si>
+    <t>relic217_Des</t>
+  </si>
+  <si>
+    <t>relic218</t>
+  </si>
+  <si>
+    <t>relic218_Name</t>
+  </si>
+  <si>
+    <t>relic218_Des</t>
+  </si>
+  <si>
+    <t>relic219</t>
+  </si>
+  <si>
+    <t>relic219_Name</t>
+  </si>
+  <si>
+    <t>relic219_Des</t>
+  </si>
+  <si>
+    <t>relic220</t>
+  </si>
+  <si>
+    <t>relic220_Name</t>
+  </si>
+  <si>
+    <t>relic220_Des</t>
+  </si>
+  <si>
+    <t>relic221</t>
+  </si>
+  <si>
+    <t>relic221_Name</t>
+  </si>
+  <si>
+    <t>relic221_Des</t>
+  </si>
+  <si>
+    <t>relic222</t>
+  </si>
+  <si>
+    <t>relic222_Name</t>
+  </si>
+  <si>
+    <t>relic222_Des</t>
+  </si>
+  <si>
+    <t>relic223</t>
+  </si>
+  <si>
+    <t>relic223_Name</t>
+  </si>
+  <si>
+    <t>relic223_Des</t>
+  </si>
+  <si>
+    <t>relic224</t>
+  </si>
+  <si>
+    <t>relic224_Name</t>
+  </si>
+  <si>
+    <t>relic224_Des</t>
+  </si>
+  <si>
+    <t>relic225</t>
+  </si>
+  <si>
+    <t>relic225_Name</t>
+  </si>
+  <si>
+    <t>relic225_Des</t>
+  </si>
+  <si>
+    <t>relic226</t>
+  </si>
+  <si>
+    <t>relic226_Name</t>
+  </si>
+  <si>
+    <t>relic226_Des</t>
+  </si>
+  <si>
+    <t>relic227</t>
+  </si>
+  <si>
+    <t>relic227_Name</t>
+  </si>
+  <si>
+    <t>relic227_Des</t>
+  </si>
+  <si>
+    <t>relic228</t>
+  </si>
+  <si>
+    <t>relic228_Name</t>
+  </si>
+  <si>
+    <t>relic228_Des</t>
+  </si>
+  <si>
+    <t>relic229</t>
+  </si>
+  <si>
+    <t>relic229_Name</t>
+  </si>
+  <si>
+    <t>relic229_Des</t>
+  </si>
+  <si>
+    <t>relic230</t>
+  </si>
+  <si>
+    <t>relic230_Name</t>
+  </si>
+  <si>
+    <t>relic230_Des</t>
+  </si>
+  <si>
+    <t>relic231</t>
+  </si>
+  <si>
+    <t>relic231_Name</t>
+  </si>
+  <si>
+    <t>relic231_Des</t>
+  </si>
+  <si>
+    <t>relic232</t>
+  </si>
+  <si>
+    <t>relic232_Name</t>
+  </si>
+  <si>
+    <t>relic232_Des</t>
+  </si>
+  <si>
+    <t>relic233</t>
+  </si>
+  <si>
+    <t>relic233_Name</t>
+  </si>
+  <si>
+    <t>relic233_Des</t>
+  </si>
+  <si>
+    <t>relic234</t>
+  </si>
+  <si>
+    <t>relic234_Name</t>
+  </si>
+  <si>
+    <t>relic234_Des</t>
+  </si>
+  <si>
+    <t>relic235</t>
+  </si>
+  <si>
+    <t>relic235_Name</t>
+  </si>
+  <si>
+    <t>relic235_Des</t>
+  </si>
+  <si>
+    <t>relic236</t>
+  </si>
+  <si>
+    <t>relic236_Name</t>
+  </si>
+  <si>
+    <t>relic236_Des</t>
+  </si>
+  <si>
+    <t>relic237</t>
+  </si>
+  <si>
+    <t>relic237_Name</t>
+  </si>
+  <si>
+    <t>relic237_Des</t>
+  </si>
+  <si>
+    <t>relic238</t>
+  </si>
+  <si>
+    <t>relic238_Name</t>
+  </si>
+  <si>
+    <t>relic238_Des</t>
+  </si>
+  <si>
+    <t>relic239</t>
+  </si>
+  <si>
+    <t>relic239_Name</t>
+  </si>
+  <si>
+    <t>relic239_Des</t>
+  </si>
+  <si>
+    <t>relic240</t>
+  </si>
+  <si>
+    <t>relic240_Name</t>
+  </si>
+  <si>
+    <t>relic240_Des</t>
+  </si>
+  <si>
+    <t>relic241</t>
+  </si>
+  <si>
+    <t>relic241_Name</t>
+  </si>
+  <si>
+    <t>relic241_Des</t>
+  </si>
+  <si>
+    <t>relic242</t>
+  </si>
+  <si>
+    <t>relic242_Name</t>
+  </si>
+  <si>
+    <t>relic242_Des</t>
+  </si>
+  <si>
+    <t>relic243</t>
+  </si>
+  <si>
+    <t>relic243_Name</t>
+  </si>
+  <si>
+    <t>relic243_Des</t>
+  </si>
+  <si>
+    <t>relic244</t>
+  </si>
+  <si>
+    <t>relic244_Name</t>
+  </si>
+  <si>
+    <t>relic244_Des</t>
+  </si>
+  <si>
+    <t>relic245</t>
+  </si>
+  <si>
+    <t>relic245_Name</t>
+  </si>
+  <si>
+    <t>relic245_Des</t>
+  </si>
+  <si>
+    <t>relic246</t>
+  </si>
+  <si>
+    <t>relic246_Name</t>
+  </si>
+  <si>
+    <t>relic246_Des</t>
+  </si>
+  <si>
+    <t>relic247</t>
+  </si>
+  <si>
+    <t>relic247_Name</t>
+  </si>
+  <si>
+    <t>relic247_Des</t>
+  </si>
+  <si>
+    <t>relic248</t>
+  </si>
+  <si>
+    <t>relic248_Name</t>
+  </si>
+  <si>
+    <t>relic248_Des</t>
+  </si>
+  <si>
+    <t>relic249</t>
+  </si>
+  <si>
+    <t>relic249_Name</t>
+  </si>
+  <si>
+    <t>relic249_Des</t>
+  </si>
+  <si>
+    <t>relic250</t>
+  </si>
+  <si>
+    <t>relic250_Name</t>
+  </si>
+  <si>
+    <t>relic250_Des</t>
+  </si>
+  <si>
+    <t>relic251</t>
+  </si>
+  <si>
+    <t>relic251_Name</t>
+  </si>
+  <si>
+    <t>relic251_Des</t>
+  </si>
+  <si>
+    <t>relic252</t>
+  </si>
+  <si>
+    <t>relic252_Name</t>
+  </si>
+  <si>
+    <t>relic252_Des</t>
+  </si>
+  <si>
+    <t>relic253</t>
+  </si>
+  <si>
+    <t>relic253_Name</t>
+  </si>
+  <si>
+    <t>relic253_Des</t>
+  </si>
+  <si>
+    <t>relic254</t>
+  </si>
+  <si>
+    <t>relic254_Name</t>
+  </si>
+  <si>
+    <t>relic254_Des</t>
+  </si>
+  <si>
+    <t>relic255</t>
+  </si>
+  <si>
+    <t>relic255_Name</t>
+  </si>
+  <si>
+    <t>relic255_Des</t>
+  </si>
+  <si>
+    <t>relic256</t>
+  </si>
+  <si>
+    <t>relic256_Name</t>
+  </si>
+  <si>
+    <t>relic256_Des</t>
   </si>
   <si>
     <t>Relic_Rarity</t>
@@ -775,8 +1162,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EED133A-2562-4700-AE93-C3D053B4F1E6}">
-  <dimension ref="A1:N36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8141BC-DF13-4427-9843-E604288B554B}">
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:N1048576"/>
@@ -795,37 +1182,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="I1" t="s">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>243</v>
       </c>
       <c r="K1" t="s">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="L1" t="s">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="M1" t="s">
-        <v>117</v>
+        <v>246</v>
       </c>
       <c r="N1" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -2159,7 +2546,7 @@
         <v>95</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -2203,7 +2590,7 @@
         <v>98</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -2247,7 +2634,7 @@
         <v>101</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>7</v>
@@ -2365,6 +2752,1898 @@
         <v>0</v>
       </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0.75</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0.75</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0.75</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1250</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>500</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>500</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>500</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1000</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>25</v>
+      </c>
+      <c r="F51">
+        <v>0.25</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>25</v>
+      </c>
+      <c r="F52">
+        <v>0.25</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1250</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>500</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0.1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0.05</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0.5</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>50</v>
+      </c>
+      <c r="F63">
+        <v>0.5</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1250</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1000</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0.2</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0.1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>50</v>
+      </c>
+      <c r="F73">
+        <v>0.5</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" t="s">
+        <v>233</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>300</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
         <v>0</v>
       </c>
     </row>
